--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Serpinc1-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Serpinc1-Sdc2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.291738</v>
+        <v>0.955666</v>
       </c>
       <c r="H2">
-        <v>18.875214</v>
+        <v>2.866998</v>
       </c>
       <c r="I2">
-        <v>0.5742845621220376</v>
+        <v>0.1700560254029595</v>
       </c>
       <c r="J2">
-        <v>0.5742845621220376</v>
+        <v>0.1700560254029595</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7065936666666666</v>
+        <v>1.116695</v>
       </c>
       <c r="N2">
-        <v>2.119781</v>
+        <v>3.350085</v>
       </c>
       <c r="O2">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497491</v>
       </c>
       <c r="P2">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497492</v>
       </c>
       <c r="Q2">
-        <v>4.445702223125999</v>
+        <v>1.06718744387</v>
       </c>
       <c r="R2">
-        <v>40.01132000813399</v>
+        <v>9.604686994830001</v>
       </c>
       <c r="S2">
-        <v>0.002979298500976342</v>
+        <v>0.001390074393374188</v>
       </c>
       <c r="T2">
-        <v>0.002979298500976342</v>
+        <v>0.001390074393374188</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.291738</v>
+        <v>0.955666</v>
       </c>
       <c r="H3">
-        <v>18.875214</v>
+        <v>2.866998</v>
       </c>
       <c r="I3">
-        <v>0.5742845621220376</v>
+        <v>0.1700560254029595</v>
       </c>
       <c r="J3">
-        <v>0.5742845621220376</v>
+        <v>0.1700560254029595</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>335.79602</v>
       </c>
       <c r="O3">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="P3">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="Q3">
-        <v>704.24685976092</v>
+        <v>106.9696130831067</v>
       </c>
       <c r="R3">
-        <v>6338.22173784828</v>
+        <v>962.7265177479601</v>
       </c>
       <c r="S3">
-        <v>0.4719528003222135</v>
+        <v>0.1393342105644982</v>
       </c>
       <c r="T3">
-        <v>0.4719528003222135</v>
+        <v>0.1393342105644981</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.291738</v>
+        <v>0.955666</v>
       </c>
       <c r="H4">
-        <v>18.875214</v>
+        <v>2.866998</v>
       </c>
       <c r="I4">
-        <v>0.5742845621220376</v>
+        <v>0.1700560254029595</v>
       </c>
       <c r="J4">
-        <v>0.5742845621220376</v>
+        <v>0.1700560254029595</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>70.689615</v>
       </c>
       <c r="O4">
-        <v>0.1730021488506163</v>
+        <v>0.172482806037502</v>
       </c>
       <c r="P4">
-        <v>0.1730021488506163</v>
+        <v>0.1724828060375021</v>
       </c>
       <c r="Q4">
-        <v>148.25351230029</v>
+        <v>22.51855386953</v>
       </c>
       <c r="R4">
-        <v>1334.28161070261</v>
+        <v>202.66698482577</v>
       </c>
       <c r="S4">
-        <v>0.09935246329884775</v>
+        <v>0.02933174044508719</v>
       </c>
       <c r="T4">
-        <v>0.09935246329884777</v>
+        <v>0.02933174044508719</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>11.191811</v>
       </c>
       <c r="I5">
-        <v>0.3405145117553424</v>
+        <v>0.6638424218367511</v>
       </c>
       <c r="J5">
-        <v>0.3405145117553424</v>
+        <v>0.663842421836751</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7065936666666666</v>
+        <v>1.116695</v>
       </c>
       <c r="N5">
-        <v>2.119781</v>
+        <v>3.350085</v>
       </c>
       <c r="O5">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497491</v>
       </c>
       <c r="P5">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497492</v>
       </c>
       <c r="Q5">
-        <v>2.636020923710111</v>
+        <v>4.165946461548334</v>
       </c>
       <c r="R5">
-        <v>23.724188313391</v>
+        <v>37.493518153935</v>
       </c>
       <c r="S5">
-        <v>0.001766536036916484</v>
+        <v>0.005426390212544119</v>
       </c>
       <c r="T5">
-        <v>0.001766536036916484</v>
+        <v>0.005426390212544119</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>11.191811</v>
       </c>
       <c r="I6">
-        <v>0.3405145117553424</v>
+        <v>0.6638424218367511</v>
       </c>
       <c r="J6">
-        <v>0.3405145117553424</v>
+        <v>0.663842421836751</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>335.79602</v>
       </c>
       <c r="O6">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="P6">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="Q6">
         <v>417.5739544880245</v>
@@ -818,10 +818,10 @@
         <v>3758.16559039222</v>
       </c>
       <c r="S6">
-        <v>0.2798382334699333</v>
+        <v>0.5439146279390731</v>
       </c>
       <c r="T6">
-        <v>0.2798382334699333</v>
+        <v>0.543914627939073</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>11.191811</v>
       </c>
       <c r="I7">
-        <v>0.3405145117553424</v>
+        <v>0.6638424218367511</v>
       </c>
       <c r="J7">
-        <v>0.3405145117553424</v>
+        <v>0.663842421836751</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>70.689615</v>
       </c>
       <c r="O7">
-        <v>0.1730021488506163</v>
+        <v>0.172482806037502</v>
       </c>
       <c r="P7">
-        <v>0.1730021488506163</v>
+        <v>0.1724828060375021</v>
       </c>
       <c r="Q7">
         <v>87.90497897141833</v>
@@ -880,10 +880,10 @@
         <v>791.144810742765</v>
       </c>
       <c r="S7">
-        <v>0.05890974224849268</v>
+        <v>0.114501403685134</v>
       </c>
       <c r="T7">
-        <v>0.05890974224849269</v>
+        <v>0.114501403685134</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.933443</v>
+        <v>0.9334429999999999</v>
       </c>
       <c r="H8">
         <v>2.800329</v>
       </c>
       <c r="I8">
-        <v>0.08520092612262004</v>
+        <v>0.1661015527602894</v>
       </c>
       <c r="J8">
-        <v>0.08520092612262004</v>
+        <v>0.1661015527602894</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7065936666666666</v>
+        <v>1.116695</v>
       </c>
       <c r="N8">
-        <v>2.119781</v>
+        <v>3.350085</v>
       </c>
       <c r="O8">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497491</v>
       </c>
       <c r="P8">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497492</v>
       </c>
       <c r="Q8">
-        <v>0.6595649119943332</v>
+        <v>1.042371130885</v>
       </c>
       <c r="R8">
-        <v>5.936084207948999</v>
+        <v>9.381340177964999</v>
       </c>
       <c r="S8">
-        <v>0.0004420090809005175</v>
+        <v>0.001357749686579184</v>
       </c>
       <c r="T8">
-        <v>0.0004420090809005175</v>
+        <v>0.001357749686579184</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.933443</v>
+        <v>0.9334429999999999</v>
       </c>
       <c r="H9">
         <v>2.800329</v>
       </c>
       <c r="I9">
-        <v>0.08520092612262004</v>
+        <v>0.1661015527602894</v>
       </c>
       <c r="J9">
-        <v>0.08520092612262004</v>
+        <v>0.1661015527602894</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>335.79602</v>
       </c>
       <c r="O9">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="P9">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="Q9">
         <v>104.4821480989533</v>
       </c>
       <c r="R9">
-        <v>940.3393328905801</v>
+        <v>940.3393328905798</v>
       </c>
       <c r="S9">
-        <v>0.07001897373844364</v>
+        <v>0.1360941411664293</v>
       </c>
       <c r="T9">
-        <v>0.07001897373844364</v>
+        <v>0.1360941411664293</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.933443</v>
+        <v>0.9334429999999999</v>
       </c>
       <c r="H10">
         <v>2.800329</v>
       </c>
       <c r="I10">
-        <v>0.08520092612262004</v>
+        <v>0.1661015527602894</v>
       </c>
       <c r="J10">
-        <v>0.08520092612262004</v>
+        <v>0.1661015527602894</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>70.689615</v>
       </c>
       <c r="O10">
-        <v>0.1730021488506163</v>
+        <v>0.172482806037502</v>
       </c>
       <c r="P10">
-        <v>0.1730021488506163</v>
+        <v>0.1724828060375021</v>
       </c>
       <c r="Q10">
         <v>21.994908764815</v>
@@ -1066,10 +1066,10 @@
         <v>197.954178883335</v>
       </c>
       <c r="S10">
-        <v>0.01473994330327587</v>
+        <v>0.02864966190728091</v>
       </c>
       <c r="T10">
-        <v>0.01473994330327588</v>
+        <v>0.02864966190728091</v>
       </c>
     </row>
   </sheetData>
